--- a/Report 3 ngày/Yino-Tech-3-ngày.xlsx
+++ b/Report 3 ngày/Yino-Tech-3-ngày.xlsx
@@ -62,22 +62,25 @@
     <t>active</t>
   </si>
   <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
   </si>
   <si>
     <t>Advantage+ shopping campaign_Top Sale_22/12</t>
   </si>
   <si>
+    <t>Custom Photo Funny Family Pet Face - Gift For Couples, Best Friends, Siblings, Dog And Cat Lovers - Personalized Custom Unisex Beach Shorts_UBYN106ELE2378WP_15/06/23</t>
+  </si>
+  <si>
     <t>Apparently We're Trouble When We Are Together Who Knew Best Friends - Bestie BFF Gift - Personalized Custom T Shirt_TSAK500NAH1349WP_14/04</t>
   </si>
   <si>
     <t>Advantage+ shopping campaign_Top Sale_15/12 Campaign</t>
   </si>
   <si>
-    <t>Custom Photo Funny Family Pet Face - Gift For Couples, Best Friends, Siblings, Dog And Cat Lovers - Personalized Custom Unisex Beach Shorts_UBYN106ELE2378WP_15/06/23</t>
+    <t>Congrats On Being My Husband Chibi - Anniversary, Vacation, Funny Gift For Couples, Family - Personalized Custom Mug_MUNV625NAH2338WP_10/06/23</t>
   </si>
   <si>
     <t>Black Rose Sibling Congrats On Being My Brother - Gift For Sibling - Personalized Black Mug_MUGT273CIN1509WP_11/08/23</t>
@@ -86,16 +89,13 @@
     <t>Runagain_Hope You Brought Alcohol And Dog Treats Couple Husband Wife - Backyard Sign - Personalized Custom Classic Metal Signs_MSAK477NAH1248WP_28/12</t>
   </si>
   <si>
-    <t>Congrats On Being My Husband Chibi - Anniversary, Vacation, Funny Gift For Couples, Family - Personalized Custom Mug_MUNV625NAH2338WP_10/06/23</t>
+    <t>Here's To Another Year Of Bonding Over Alcohol Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUBD466NAH1122WP_07/01</t>
+  </si>
+  <si>
+    <t>I Love You To The Beach And Back Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUVA470NAH1355WP_25/04</t>
   </si>
   <si>
     <t>Partners In Crime Just Remember If We Get Caught Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUNV538NAH1943WP_31/12</t>
-  </si>
-  <si>
-    <t>I Love You To The Beach And Back Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUVA470NAH1355WP_25/04</t>
-  </si>
-  <si>
-    <t>Here's To Another Year Of Bonding Over Alcohol Best Friends - Bestie BFF Gift - Personalized Custom Tumbler_TUBD466NAH1122WP_07/01</t>
   </si>
 </sst>
 </file>
@@ -503,19 +503,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>266407.0</v>
+        <v>272142.0</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>304425.0</v>
+        <v>311084.0</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>1.14270646</v>
+        <v>1.14309441</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>2189.73</v>
+        <v>1741.8</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
@@ -538,19 +538,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>51573.0</v>
+        <v>62921.0</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>57379.0</v>
+        <v>70140.0</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>1.11257829</v>
+        <v>1.11473117</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="8" t="n">
-        <v>438.58</v>
+        <v>446.77</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
@@ -573,19 +573,19 @@
         <v>19</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>23867.0</v>
+        <v>14260.0</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>30491.0</v>
+        <v>17586.0</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>1.27753802</v>
+        <v>1.23323983</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>111.9</v>
+        <v>119.39</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
@@ -608,19 +608,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>21701.0</v>
+        <v>27706.0</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>25507.0</v>
+        <v>34125.0</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>1.17538362</v>
+        <v>1.23168267</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>88.38</v>
+        <v>113.03</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
@@ -643,19 +643,19 @@
         <v>21</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7980.0</v>
+        <v>28566.0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9807.0</v>
+        <v>32707.0</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1.22894737</v>
+        <v>1.14496254</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>75.6</v>
+        <v>91.47</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
@@ -678,19 +678,19 @@
         <v>22</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10311.0</v>
+        <v>15101.0</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13912.0</v>
+        <v>18353.0</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>1.34923868</v>
+        <v>1.21534998</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>69.09</v>
+        <v>79.96</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
@@ -713,19 +713,19 @@
         <v>23</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>5710.0</v>
+        <v>11422.0</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>7038.0</v>
+        <v>14354.0</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>1.23257443</v>
+        <v>1.2566976</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>58.95</v>
+        <v>67.2</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>14</v>
@@ -748,19 +748,19 @@
         <v>24</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>8430.0</v>
+        <v>6416.0</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>10701.0</v>
+        <v>7720.0</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>1.26939502</v>
+        <v>1.2032419</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>50.91</v>
+        <v>60.11</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>14</v>
@@ -783,19 +783,19 @@
         <v>25</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6319.0</v>
+        <v>6593.0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6983.0</v>
+        <v>7697.0</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>1.10507992</v>
+        <v>1.16745033</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>45.87</v>
+        <v>44.25</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
@@ -818,19 +818,19 @@
         <v>26</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>2545.0</v>
+        <v>2591.0</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>3288.0</v>
+        <v>3112.0</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1.29194499</v>
+        <v>1.20108066</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>35.5</v>
+        <v>35.78</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
@@ -853,19 +853,19 @@
         <v>27</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>3605.0</v>
+        <v>2769.0</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>4396.0</v>
+        <v>3199.0</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1.21941748</v>
+        <v>1.15529072</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>23.83</v>
+        <v>14.01</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
